--- a/FinalResults.xlsx
+++ b/FinalResults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roland Leferink\PycharmProjects\scriptie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roland\PycharmProjects\scriptie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F741BF00-F51A-4CAA-B3F6-F4F47EDB14AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB2DBD7-6CF5-4DF4-976F-CE3796DAA823}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controversieel" sheetId="1" r:id="rId1"/>

--- a/FinalResults.xlsx
+++ b/FinalResults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roland\PycharmProjects\scriptie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roland Leferink\PycharmProjects\scriptie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB2DBD7-6CF5-4DF4-976F-CE3796DAA823}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60294404-A82F-4054-B4A4-97ABA699FA82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controversieel" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,20 @@
   <definedNames>
     <definedName name="Z_59DCE23C_CE72_4939_A4F9_25FEEA9E2BAC_.wvu.FilterData" localSheetId="0" hidden="1">Controversieel!$A$1:$I$51</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
     <customWorkbookView name="Filter 1" guid="{59DCE23C-CE72-4939-A4F9-25FEEA9E2BAC}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1241,9 +1251,6 @@
     <t>['bloemenhove.nl', 'bloemenhove.nl', 'gezondheidsplein.nl', 'thuisarts.nl', 'trouw.nl', 'fiom.nl', 'telegraaf.nl', 'ad.nl', 'schreeuwomleven.nl']</t>
   </si>
   <si>
-    <t>['wur.nl', 'rijksoverheid.nl', 'hier.nu', 'Delftce.nl', 'climategate.nl', 'klimaat.be', 'energievergelijk.nl', 'knaw.nl', 'urgenda.nl']</t>
-  </si>
-  <si>
     <t>['ad.nl', 'ad.nl', 'volkskrant.nl', 'trouw.nl', 'nu.nl', 'eenvandaag.avrotros.nl', 'eenvandaag.avrotros.nl', 'nos.nl', 'nrc.nl']</t>
   </si>
   <si>
@@ -1272,6 +1279,9 @@
   </si>
   <si>
     <t>['nl.wikipedia.org', 'rijksoverheid.nl', 'politie.nl', 'volkskrant.nl', 'europadecentraal.nl', 'decorrespondent.nl', 'europadecentraal.nl', 'jalta.nl', 'elsevierweekblad.nl', 'eur-lex.europa.eu']</t>
+  </si>
+  <si>
+    <t>['wur.nl', 'rijksoverheid.nl', 'hier.nu', 'ce.nl', 'climategate.nl', 'klimaat.be', 'energievergelijk.nl', 'knaw.nl', 'urgenda.nl']</t>
   </si>
 </sst>
 </file>
@@ -1564,18 +1574,19 @@
   </sheetPr>
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="7" width="21.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="5" max="5" width="138" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="113.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="127.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="175.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="150.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="15" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2086,19 +2097,19 @@
         <v>18</v>
       </c>
       <c r="E18" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="G18" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="H18" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="I18" s="10" t="s">
         <v>413</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -2437,16 +2448,16 @@
         <v>403</v>
       </c>
       <c r="F30" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="H30" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="I30" s="10" t="s">
         <v>406</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -2730,10 +2741,10 @@
         <v>395</v>
       </c>
       <c r="G40" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="H40" s="10" t="s">
         <v>408</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>409</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>398</v>
@@ -3080,9 +3091,9 @@
   </sheetPr>
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A53" sqref="A53:XFD63"/>
+      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
